--- a/excel/SampleUploadQTChuyenNgach.xlsx
+++ b/excel/SampleUploadQTChuyenNgach.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GIT/namgold/gen-tool/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342AF9AF-C829-BC46-8DD4-EBC622E39E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B7FF2F-5CEB-CD43-8BC9-3EB29EB8C375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15120" xr2:uid="{6E7EAC58-2C04-8D46-8982-D8C0C01FC488}"/>
+    <workbookView xWindow="1560" yWindow="1460" windowWidth="27240" windowHeight="15120" xr2:uid="{6E7EAC58-2C04-8D46-8982-D8C0C01FC488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>SHCC</t>
   </si>
@@ -81,9 +81,6 @@
     <t>619/QĐ-ĐHBK-TCHC</t>
   </si>
   <si>
-    <t>18/03/2019</t>
-  </si>
-  <si>
     <t>V.05.02.07</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>2003/QĐ-ĐHBK-TCHC</t>
   </si>
   <si>
-    <t>26/07/2019</t>
-  </si>
-  <si>
     <t>01a003</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>1856/QĐ-ĐHBK-TCHC</t>
   </si>
   <si>
-    <t>16/07/2018</t>
-  </si>
-  <si>
     <t>003486</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>2959/QĐ-ĐHBK-TCHC</t>
   </si>
   <si>
-    <t>16/10/2018</t>
-  </si>
-  <si>
     <t>003092</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>3781/QĐ-ĐHBK-TCHC</t>
   </si>
   <si>
-    <t>17/12/2018</t>
-  </si>
-  <si>
     <t>01.009</t>
   </si>
   <si>
@@ -175,15 +160,15 @@
   </si>
   <si>
     <t>3099/QĐ-ĐHBK-TCHC</t>
-  </si>
-  <si>
-    <t>15/10/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -266,13 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -282,15 +261,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C05CE1C-7508-B94E-9A13-E0172017624C}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -619,18 +604,18 @@
     <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -642,379 +627,379 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10">
-        <v>43531</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="16">
+        <v>43649</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>3</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="8">
         <v>3</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>43772</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10">
-        <v>43531</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="16">
+        <v>43649</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="13">
         <v>43772</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16">
+        <v>43542</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2.67</v>
+      </c>
+      <c r="H4" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16">
+        <v>43672</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="H5" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43778</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.34</v>
+      </c>
+      <c r="H6" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16">
+        <v>43297</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G7" s="8">
         <v>2.67</v>
       </c>
-      <c r="H4" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="H7" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="16">
+        <v>43297</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.67</v>
+      </c>
+      <c r="H8" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="16">
+        <v>43297</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="H9" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="16">
+        <v>43297</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="F10" s="6">
         <v>4</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G10" s="8">
         <v>3.33</v>
       </c>
-      <c r="H5" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="10">
-        <v>43719</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="H10" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="16">
+        <v>43389</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="H11" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="16">
+        <v>43389</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2.67</v>
+      </c>
+      <c r="H12" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="16">
+        <v>43389</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G13" s="8">
         <v>2.34</v>
       </c>
-      <c r="H6" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="H13" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="16">
+        <v>43451</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="6">
+        <v>8</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2.76</v>
+      </c>
+      <c r="H14" s="13">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="16">
+        <v>43753</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11">
-        <v>2.67</v>
-      </c>
-      <c r="H7" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11">
-        <v>2.67</v>
-      </c>
-      <c r="H8" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="F15" s="6">
         <v>4</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G15" s="8">
         <v>3.33</v>
       </c>
-      <c r="H9" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8">
-        <v>4</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3.33</v>
-      </c>
-      <c r="H10" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8">
-        <v>4</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3.33</v>
-      </c>
-      <c r="H11" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2.67</v>
-      </c>
-      <c r="H12" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
-        <v>2.34</v>
-      </c>
-      <c r="H13" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="8">
-        <v>8</v>
-      </c>
-      <c r="G14" s="11">
-        <v>2.76</v>
-      </c>
-      <c r="H14" s="12">
-        <v>43772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="8">
-        <v>4</v>
-      </c>
-      <c r="G15" s="11">
-        <v>3.33</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="H15" s="13">
         <v>43772</v>
       </c>
     </row>
     <row r="26" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="15"/>
+      <c r="F26" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
